--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>105.2534506666667</v>
+        <v>23.000594</v>
       </c>
       <c r="H2">
-        <v>315.760352</v>
+        <v>69.00178200000001</v>
       </c>
       <c r="I2">
-        <v>0.2966477300323703</v>
+        <v>0.1085495600721081</v>
       </c>
       <c r="J2">
-        <v>0.2966477300323703</v>
+        <v>0.1085495600721081</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>51.23401333333334</v>
+        <v>0.493155</v>
       </c>
       <c r="N2">
-        <v>153.70204</v>
+        <v>1.479465</v>
       </c>
       <c r="O2">
-        <v>0.9688226788583661</v>
+        <v>0.2262533155038342</v>
       </c>
       <c r="P2">
-        <v>0.9688226788583661</v>
+        <v>0.2262533155038342</v>
       </c>
       <c r="Q2">
-        <v>5392.556694835343</v>
+        <v>11.34285793407</v>
       </c>
       <c r="R2">
-        <v>48533.01025351809</v>
+        <v>102.08572140663</v>
       </c>
       <c r="S2">
-        <v>0.2873990484872144</v>
+        <v>0.02455969786279709</v>
       </c>
       <c r="T2">
-        <v>0.2873990484872144</v>
+        <v>0.02455969786279709</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>105.2534506666667</v>
+        <v>23.000594</v>
       </c>
       <c r="H3">
-        <v>315.760352</v>
+        <v>69.00178200000001</v>
       </c>
       <c r="I3">
-        <v>0.2966477300323703</v>
+        <v>0.1085495600721081</v>
       </c>
       <c r="J3">
-        <v>0.2966477300323703</v>
+        <v>0.1085495600721081</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,27 +620,27 @@
         <v>4.946228</v>
       </c>
       <c r="O3">
-        <v>0.03117732114163389</v>
+        <v>0.7564224123165462</v>
       </c>
       <c r="P3">
-        <v>0.03117732114163389</v>
+        <v>0.7564224123165462</v>
       </c>
       <c r="Q3">
-        <v>173.5358549280284</v>
+        <v>37.92206068647734</v>
       </c>
       <c r="R3">
-        <v>1561.822694352256</v>
+        <v>341.298546178296</v>
       </c>
       <c r="S3">
-        <v>0.00924868154515592</v>
+        <v>0.08210932008564388</v>
       </c>
       <c r="T3">
-        <v>0.00924868154515592</v>
+        <v>0.08210932008564388</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>161.0956266666666</v>
+        <v>23.000594</v>
       </c>
       <c r="H4">
-        <v>483.2868799999999</v>
+        <v>69.00178200000001</v>
       </c>
       <c r="I4">
-        <v>0.4540340641196984</v>
+        <v>0.1085495600721081</v>
       </c>
       <c r="J4">
-        <v>0.4540340641196984</v>
+        <v>0.1085495600721081</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>51.23401333333334</v>
+        <v>0.037761</v>
       </c>
       <c r="N4">
-        <v>153.70204</v>
+        <v>0.113283</v>
       </c>
       <c r="O4">
-        <v>0.9688226788583661</v>
+        <v>0.01732427217961956</v>
       </c>
       <c r="P4">
-        <v>0.9688226788583661</v>
+        <v>0.01732427217961956</v>
       </c>
       <c r="Q4">
-        <v>8253.57548458169</v>
+        <v>0.8685254300340001</v>
       </c>
       <c r="R4">
-        <v>74282.1793612352</v>
+        <v>7.816728870306</v>
       </c>
       <c r="S4">
-        <v>0.4398784982933974</v>
+        <v>0.001880542123667165</v>
       </c>
       <c r="T4">
-        <v>0.4398784982933974</v>
+        <v>0.001880542123667165</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>161.0956266666666</v>
+        <v>161.0956266666667</v>
       </c>
       <c r="H5">
-        <v>483.2868799999999</v>
+        <v>483.28688</v>
       </c>
       <c r="I5">
-        <v>0.4540340641196984</v>
+        <v>0.7602785999442988</v>
       </c>
       <c r="J5">
-        <v>0.4540340641196984</v>
+        <v>0.7602785999442987</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,33 +738,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.648742666666666</v>
+        <v>0.493155</v>
       </c>
       <c r="N5">
-        <v>4.946228</v>
+        <v>1.479465</v>
       </c>
       <c r="O5">
-        <v>0.03117732114163389</v>
+        <v>0.2262533155038342</v>
       </c>
       <c r="P5">
-        <v>0.03117732114163389</v>
+        <v>0.2262533155038342</v>
       </c>
       <c r="Q5">
-        <v>265.6052330987377</v>
+        <v>79.4451137688</v>
       </c>
       <c r="R5">
-        <v>2390.44709788864</v>
+        <v>715.0060239192001</v>
       </c>
       <c r="S5">
-        <v>0.01415556582630103</v>
+        <v>0.1720155539440108</v>
       </c>
       <c r="T5">
-        <v>0.01415556582630103</v>
+        <v>0.1720155539440108</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,51 +782,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>88.460483</v>
+        <v>161.0956266666667</v>
       </c>
       <c r="H6">
-        <v>265.381449</v>
+        <v>483.28688</v>
       </c>
       <c r="I6">
-        <v>0.2493182058479313</v>
+        <v>0.7602785999442988</v>
       </c>
       <c r="J6">
-        <v>0.2493182058479313</v>
+        <v>0.7602785999442987</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>51.23401333333334</v>
+        <v>1.648742666666666</v>
       </c>
       <c r="N6">
-        <v>153.70204</v>
+        <v>4.946228</v>
       </c>
       <c r="O6">
-        <v>0.9688226788583661</v>
+        <v>0.7564224123165462</v>
       </c>
       <c r="P6">
-        <v>0.9688226788583661</v>
+        <v>0.7564224123165462</v>
       </c>
       <c r="Q6">
-        <v>4532.185565495108</v>
+        <v>265.6052330987378</v>
       </c>
       <c r="R6">
-        <v>40789.67008945597</v>
+        <v>2390.44709788864</v>
       </c>
       <c r="S6">
-        <v>0.2415451320777544</v>
+        <v>0.5750917726025129</v>
       </c>
       <c r="T6">
-        <v>0.2415451320777544</v>
+        <v>0.5750917726025128</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,46 +844,232 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>88.460483</v>
+        <v>161.0956266666667</v>
       </c>
       <c r="H7">
-        <v>265.381449</v>
+        <v>483.28688</v>
       </c>
       <c r="I7">
-        <v>0.2493182058479313</v>
+        <v>0.7602785999442988</v>
       </c>
       <c r="J7">
-        <v>0.2493182058479313</v>
+        <v>0.7602785999442987</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.037761</v>
+      </c>
+      <c r="N7">
+        <v>0.113283</v>
+      </c>
+      <c r="O7">
+        <v>0.01732427217961956</v>
+      </c>
+      <c r="P7">
+        <v>0.01732427217961956</v>
+      </c>
+      <c r="Q7">
+        <v>6.083131958559999</v>
+      </c>
+      <c r="R7">
+        <v>54.74818762704</v>
+      </c>
+      <c r="S7">
+        <v>0.01317127339777513</v>
+      </c>
+      <c r="T7">
+        <v>0.01317127339777512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>27.79403466666666</v>
+      </c>
+      <c r="H8">
+        <v>83.382104</v>
+      </c>
+      <c r="I8">
+        <v>0.131171839983593</v>
+      </c>
+      <c r="J8">
+        <v>0.131171839983593</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M7">
+      <c r="M8">
+        <v>0.493155</v>
+      </c>
+      <c r="N8">
+        <v>1.479465</v>
+      </c>
+      <c r="O8">
+        <v>0.2262533155038342</v>
+      </c>
+      <c r="P8">
+        <v>0.2262533155038342</v>
+      </c>
+      <c r="Q8">
+        <v>13.70676716604</v>
+      </c>
+      <c r="R8">
+        <v>123.36090449436</v>
+      </c>
+      <c r="S8">
+        <v>0.02967806369702632</v>
+      </c>
+      <c r="T8">
+        <v>0.02967806369702632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>27.79403466666666</v>
+      </c>
+      <c r="H9">
+        <v>83.382104</v>
+      </c>
+      <c r="I9">
+        <v>0.131171839983593</v>
+      </c>
+      <c r="J9">
+        <v>0.131171839983593</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
         <v>1.648742666666666</v>
       </c>
-      <c r="N7">
+      <c r="N9">
         <v>4.946228</v>
       </c>
-      <c r="O7">
-        <v>0.03117732114163389</v>
-      </c>
-      <c r="P7">
-        <v>0.03117732114163389</v>
-      </c>
-      <c r="Q7">
-        <v>145.8485726360413</v>
-      </c>
-      <c r="R7">
-        <v>1312.637153724372</v>
-      </c>
-      <c r="S7">
-        <v>0.007773073770176938</v>
-      </c>
-      <c r="T7">
-        <v>0.007773073770176938</v>
+      <c r="O9">
+        <v>0.7564224123165462</v>
+      </c>
+      <c r="P9">
+        <v>0.7564224123165462</v>
+      </c>
+      <c r="Q9">
+        <v>45.82521083374577</v>
+      </c>
+      <c r="R9">
+        <v>412.426897503712</v>
+      </c>
+      <c r="S9">
+        <v>0.0992213196283894</v>
+      </c>
+      <c r="T9">
+        <v>0.0992213196283894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>27.79403466666666</v>
+      </c>
+      <c r="H10">
+        <v>83.382104</v>
+      </c>
+      <c r="I10">
+        <v>0.131171839983593</v>
+      </c>
+      <c r="J10">
+        <v>0.131171839983593</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.037761</v>
+      </c>
+      <c r="N10">
+        <v>0.113283</v>
+      </c>
+      <c r="O10">
+        <v>0.01732427217961956</v>
+      </c>
+      <c r="P10">
+        <v>0.01732427217961956</v>
+      </c>
+      <c r="Q10">
+        <v>1.049530543048</v>
+      </c>
+      <c r="R10">
+        <v>9.445774887432</v>
+      </c>
+      <c r="S10">
+        <v>0.002272456658177269</v>
+      </c>
+      <c r="T10">
+        <v>0.002272456658177269</v>
       </c>
     </row>
   </sheetData>
